--- a/FINALFIGS/5_RandomForestCirclize/battr/Miura2006haplotypes_meta.xlsx
+++ b/FINALFIGS/5_RandomForestCirclize/battr/Miura2006haplotypes_meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sotkae/Dropbox/Documents/Publications/CURRENT/gigas-popgen/popgen-OysterAssociates/Batillaria attramentaria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sotkae/Dropbox/Documents/Publications/CURRENT/gigas-popgen/github/gigas-popgen/FINALFIGS/5_RandomForestCirclize/battr_HL1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35113A4-76DA-6B41-8802-788DCA36F236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94CE97-4922-794C-B9F9-63A310A7CAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17640" xr2:uid="{DAA6121C-3FB3-4FD0-9EC7-53FD0651CBC8}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Kasuga</t>
   </si>
   <si>
-    <t>Hiroshma</t>
-  </si>
-  <si>
     <t>Ariake</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Bolinus</t>
+  </si>
+  <si>
+    <t>Hiroshima</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -521,16 +521,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -544,7 +544,7 @@
         <v>139.71225699999999</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -558,7 +558,7 @@
         <v>141.96481800000001</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -572,7 +572,7 @@
         <v>141.457761</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -586,7 +586,7 @@
         <v>141.37869599999999</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -600,7 +600,7 @@
         <v>141.154629</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -614,7 +614,7 @@
         <v>140.91378900000001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -628,7 +628,7 @@
         <v>140.95596699999999</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -642,7 +642,7 @@
         <v>139.89764400000001</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -656,7 +656,7 @@
         <v>136.53757200000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
         <v>135.38975300000001</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>134.57308699999999</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -698,12 +698,12 @@
         <v>134.095662</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>34.343409000000001</v>
@@ -712,12 +712,12 @@
         <v>132.32666800000001</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>32.534331999999999</v>
@@ -726,12 +726,12 @@
         <v>130.42247</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>49.025472999999998</v>
@@ -740,12 +740,12 @@
         <v>-123.051411</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>48.519582</v>
@@ -754,12 +754,12 @@
         <v>-122.487675</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>37.910122000000001</v>
@@ -768,12 +768,12 @@
         <v>-122.676271</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>36.810361999999998</v>
@@ -782,7 +782,7 @@
         <v>-121.783331</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
